--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:28:48+00:00</t>
+    <t>2022-07-14T23:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:35:37+00:00</t>
+    <t>2022-07-15T00:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T00:31:00+00:00</t>
+    <t>2022-07-15T01:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:40:07+00:00</t>
+    <t>2022-07-15T03:58:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T03:58:01+00:00</t>
+    <t>2022-07-15T09:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T09:57:08+00:00</t>
+    <t>2022-07-18T23:59:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T23:59:16+00:00</t>
+    <t>2022-07-19T02:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:14:28+00:00</t>
+    <t>2022-07-19T08:05:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T08:05:59+00:00</t>
+    <t>2022-07-20T22:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T22:47:26+00:00</t>
+    <t>2022-07-21T02:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T02:38:40+00:00</t>
+    <t>2022-07-22T12:50:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T12:50:03+00:00</t>
+    <t>2022-07-25T13:41:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -762,7 +762,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration_Injection|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDispenseBase|MedicationStatement|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -1203,7 +1203,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
@@ -1325,7 +1325,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1932,7 +1932,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1960,7 +1960,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|MolecularSequence)
 </t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:41:20+00:00</t>
+    <t>2022-07-26T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:48:24+00:00</t>
+    <t>2022-07-29T00:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T00:48:21+00:00</t>
+    <t>2022-08-01T01:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T01:14:07+00:00</t>
+    <t>2022-08-01T09:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:08:31+00:00</t>
+    <t>2022-08-01T10:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T10:54:34+00:00</t>
+    <t>2022-08-03T00:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T00:30:07+00:00</t>
+    <t>2022-08-03T13:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:55:30+00:00</t>
+    <t>2022-08-06T07:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T07:57:57+00:00</t>
+    <t>2022-08-06T08:15:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T08:15:13+00:00</t>
+    <t>2022-08-08T12:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="608">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:51:35+00:00</t>
+    <t>2022-08-15T09:08:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -486,22 +486,19 @@
   </si>
   <si>
     <t>A unique identifier assigned to this observation.
-&lt;br/&gt;この検査項目に割り当てられた一意の識別子。リソースの識別子やシステム的なシーケンスではなく、ビジネスID。</t>
-  </si>
-  <si>
-    <t>&lt;p/&gt;【JP仕様】&lt;br/&gt;
-当該検査項目に対して、施設内で割り振られる一意の識別子があればそれを使用する。なければ次のルールを参考に一意となる識別子を生成し設定する。&lt;br/&gt;
+この検査項目に割り当てられた一意の識別子。リソースの識別子やシステム的なシーケンスではなく、ビジネスID。</t>
+  </si>
+  <si>
+    <t>【JP-Core仕様】当該検査項目に対して、施設内で割り振られる一意の識別子があればそれを使用する。なければ次のルールを参考に一意となる識別子を生成し設定する。
 アプリケーション側のデータベースにおけるフィールド長の定義については、最低64バイトを確保すること。
-&lt;p/&gt;--- 参考 ---&lt;br/&gt;
-次の項目を順にセパレータ「_(アンダースコア)」で連結し、 identifier.value に設定する。グループ項目でない場合など、該当コード／番号がない場合はセパレータを連続で連結する。各コードはローカルコードを使用し、必ず設定できること。&lt;br/&gt;
-　１．ORC-2(依頼者オーダ番号)　SS-MIX2の15桁前ゼロ形式の番号&lt;br/&gt;
-　２．OBR-4(検査項目ID)　検査セットの識別コード&lt;br/&gt;
-　３．SPM-4(検体タイプ)&lt;br/&gt;
-　４．OBX-3(検査項目)&lt;br/&gt;
-　５．OBX-4(検査副ID)・・・オプション。必要に応じて使用。&lt;br/&gt;
-形式：[ORC-2]_[OBR-4]_[SPM-4]_[OBX-3]（_[OBX-4]）
-&lt;br/&gt;【要検討】&lt;br/&gt;
-identifier.system に格納されるコード体系について。本WGでURIを定義する。</t>
+--- 参考 ---
+次の項目を順にセパレータ「_(アンダースコア)」で連結し、 identifier.value に設定する。グループ項目でない場合など、該当コード／番号がない場合はセパレータを連続で連結する。各コードはローカルコードを使用し、必ず設定できること。
+　１．ORC-2(依頼者オーダ番号)　SS-MIX2の15桁前ゼロ形式の番号
+　２．OBR-4(検査項目ID)　検査セットの識別コード
+　３．SPM-4(検体タイプ)
+　４．OBX-3(検査項目)
+　５．OBX-4(検査副ID)・・・オプション。必要に応じて使用。
+形式：[ORC-2]_[OBR-4]_[SPM-4]_[OBX-3]（_[OBX-4]）</t>
   </si>
   <si>
     <t>Allows observations to be distinguished and referenced.</t>
@@ -560,11 +557,11 @@
   </si>
   <si>
     <t>The purpose of this identifier.
-&lt;br/&gt;この識別子の目的。</t>
+この識別子の目的。</t>
   </si>
   <si>
     <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.
-&lt;br/&gt;アプリケーションは、identifierが一時的であると明示的に述べられない限り、永続的であると想定できる。</t>
+アプリケーションは、identifierが一時的であると明示的に述べられない限り、永続的であると想定できる。</t>
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
@@ -628,9 +625,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.
-&lt;br/&gt;【要検討】URIを本WGで決定する。
-院内識別コードを使用する場合、JP仕様に合わせて設定する場合、同じURIになるか？</t>
+    <t>Identifier.system is always case sensitive.</t>
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
@@ -655,7 +650,7 @@
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.
-&lt;br/&gt;システムのコンテキスト内で一意の識別子となる文字列を設定。</t>
+システムのコンテキスト内で一意の識別子となる文字列を設定。</t>
   </si>
   <si>
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
@@ -735,12 +730,11 @@
   </si>
   <si>
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.
-&lt;br/&gt;本プロファイルでは、検体検査オーダに関する情報。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-オーダ情報がある場合、本プロファイルでは ServiceRequest のリソースを参照する。オーダIDの情報はここで使用する。</t>
+本プロファイルでは、検体検査オーダに関する情報。</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+【JP-Core仕様】オーダ情報がある場合、本プロファイルでは ServiceRequest のリソースを参照する。オーダIDの情報はここで使用する。</t>
   </si>
   <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -770,12 +764,11 @@
   </si>
   <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.
-&lt;br/&gt;このリソースが一部として、あるいは手順の一つとして含まれるより大きなイベント。</t>
+このリソースが一部として、あるいは手順の一つとして含まれるより大きなイベント。</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-当面は使用しない。</t>
+【JP-Core仕様】当面は使用しない。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -794,13 +787,11 @@
   </si>
   <si>
     <t>The status of the result value.
-&lt;br/&gt;結果値の状態。</t>
+結果値の状態。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-11(検査結果状態)&lt;br/&gt;「F」（最終結果）を使用する。
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-v2.5の「F」に相当する値は「final」であるが、ここでは 必須コード表「ObservationStatus」より、全てのコード値を使用可とする。&lt;br/&gt;
+【JP-Core仕様】v2.5の「F」に相当する値は「final」であるが、ここでは 必須コード表「ObservationStatus」より、全てのコード値を使用可とする。
 (registered | preliminary | final | amended |   corrected | cancelled | entered-in-error | unknown)</t>
   </si>
   <si>
@@ -831,16 +822,15 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>Classification of  type of observation　Obserbationの種類（タイプ）の分類</t>
+    <t>Classification of  type of observation　Observationの種類（タイプ）の分類</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.
-&lt;br/&gt;行われた検査の一般的なタイプの分類。取得、表示の際のフィルタリングに使用。</t>
+行われた検査の一般的なタイプの分類。取得、表示の際のフィルタリングに使用。</t>
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。&lt;br/&gt;
+【JP-Core仕様】推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。
 (social-history | vital-signs | imaging | laboratory | procedure | survey | exam | therapy | activity)</t>
   </si>
   <si>
@@ -851,6 +841,10 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -879,8 +873,7 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。&lt;br/&gt;</t>
+【JP-Core仕様】推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -917,6 +910,25 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>laboratory</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.
+実施されているobservationの一般的なタイプを分類するコード</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
+必要なカテゴリ値セットに加えて、この要素を使用すると、所有者のカテゴリの定義に基づいたさまざまなカテゴリ化スキームが可能になり、複数のカテゴリを一度に効果的に使用できる。粒度のレベルは、値セットのカテゴリの概念によって定義される。</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="laboratory"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -930,14 +942,10 @@
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".
-&lt;br/&gt;検査の内容の説明。検査名称。</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-【要検討】&lt;br/&gt;
-標準コードとして何を推奨、指定するか。JLAC10で良いか。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-3(検査項目)&lt;br/&gt;検査結果の場合、標準コードは「日本臨床検査医学会臨床検査項目分類コード体系（JLAC10）」を使用</t>
+検査の内容の説明。検査名称。</t>
+  </si>
+  <si>
+    <t>*JLAC10</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -946,7 +954,7 @@
     <t>MEDIS 臨床検査マスター</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/labResult-code</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationLabResultCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -977,13 +985,13 @@
   </si>
   <si>
     <t>A reference to a code defined by a terminology system.
-&lt;br/&gt;コード体系によって定義されたコードへの参照。</t>
+コード体系によって定義されたコードへの参照。</t>
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-SS-MIX2にならい、標準コード、ローカルコードの2つを設定可能とし、いずれか一方は必須とする。さらにJLAC10とJLAC11などの複数の標準コードも設定できるよう、上限は設けない。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;標準コード、ローカルコードの2つまで格納可。順不同。&lt;br/&gt;SS-MIX2だとCWE.1 ～CWE.3に標準コード、CWE.4～CWE.6にローカルコード、など（順不同）。</t>
+【JP-Core仕様】SS-MIX2にならい、標準コード、ローカルコードの2つを設定可能とし、いずれか一方は必須とする。さらにJLAC10とJLAC11などの複数の標準コードも設定できるよう、上限は設けない。
+標準コード、ローカルコードの2つまで格納可。順不同。
+SS-MIX2だとCWE.1 ～CWE.3に標準コード、CWE.4～CWE.6にローカルコード、など（順不同）。</t>
   </si>
   <si>
     <t>Observation.code.coding.id</t>
@@ -999,14 +1007,12 @@
   </si>
   <si>
     <t>The identification of the code system that defines the meaning of the symbol in the code.
-&lt;br/&gt;コード体系。</t>
+コード体系。</t>
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-【暫定】標準コードの場合、JLAC10を表すURIを設定。&lt;br/&gt;
-URIは本WGで定義する。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;CWE.3 コード体系名称</t>
+【JP-Core仕様】標準コードの場合、JLAC10を表すURIを設定。
+URIは本WGで定義する。</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1030,8 +1036,7 @@
     <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
   </si>
   <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;CWE.7 コード体系バージョン ID</t>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1052,8 +1057,7 @@
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;CWE.1 識別子&lt;br/&gt;標準コードの場合、JLAC10のコード</t>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -1075,10 +1079,6 @@
   </si>
   <si>
     <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;CWE.2 テキストに相当する。</t>
   </si>
   <si>
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
@@ -1104,12 +1104,11 @@
   </si>
   <si>
     <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).
-&lt;br/&gt;このコードが利用者によって、例えば利用可能なコードの選択リストから、など、直接選択されたものであることを示す。</t>
+このコードが利用者によって、例えば利用可能なコードの選択リストから、など、直接選択されたものであることを示す。</t>
   </si>
   <si>
     <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-当面は未使用とする。</t>
+【JP-Core仕様】当面は未使用とする。</t>
   </si>
   <si>
     <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
@@ -1128,14 +1127,12 @@
   </si>
   <si>
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.
-&lt;br/&gt;コードの表示名。報告書などに記載する場合に使用する表示名。コードを複数指定した場合(標準コード、ローカルコード)、その一般的な表現。</t>
+コードの表示名。報告書などに記載する場合に使用する表示名。コードを複数指定した場合(標準コード、ローカルコード)、その一般的な表現。</t>
   </si>
   <si>
     <t>Very often the text is the same as a displayName of one of the codings.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-本プロファイルでは、表示名として必須とする。
-&lt;br/&gt;多くの場合、coding.display と同一になるが、coding.display に異なる複数の表現が格納される場合を想定し、code間で共通の表現として必須とする。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;CWE.2 テキスト</t>
+【JP-Core仕様】本プロファイルでは、表示名として必須とする。
+多くの場合、coding.display と同一になるが、coding.display に異なる複数の表現が格納される場合を想定し、code間で共通の表現として必須とする。</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1149,13 +1146,11 @@
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.
-&lt;br/&gt;検体検査の対象となる患者。</t>
+検体検査の対象となる患者。</t>
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-本プロファイルでは、Patient 限定、かつ必須とする。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;PID-3(患者IDリスト)</t>
+【JP-Core仕様】本プロファイルでは、Patient 限定、かつ必須とする。</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -1184,13 +1179,11 @@
   </si>
   <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.
-&lt;br/&gt;患者当人ではなく、患者の胎児、親、ドナーなどの検査、観察の場合、その対象を示す。</t>
+患者当人ではなく、患者の胎児、親、ドナーなどの検査、観察の場合、その対象を示す。</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-当面は未使用とする。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;v2.5 Mappingでは OBX-3(検査項目)  が該当するが、SS-MIX2にはこの意味での該当はなし。</t>
+【JP-Core仕様】当面は未使用とする。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1211,14 +1204,12 @@
   </si>
   <si>
     <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.
-&lt;br/&gt;この検査が行われるヘルスケアイベント。医療提供者と患者の接点。</t>
+この検査が行われるヘルスケアイベント。医療提供者と患者の接点。</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-入院外来の区別や所在場所、担当診療科の情報に使用する。&lt;br/&gt;
-※本プロファイルの用途では通常は必須と考えられるが、ユースケースにより使用されない場合を考慮し、1..1に制約しない。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;PV1セグメントに相当する。</t>
+【JP-Core仕様】入院外来の区別や所在場所、担当診療科の情報に使用する。
+※本プロファイルの用途では通常は必須と考えられるが、ユースケースにより使用されない場合を考慮し、1..1に制約しない。</t>
   </si>
   <si>
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -1251,26 +1242,13 @@
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.
-&lt;br/&gt;検体検査の場合は、検体採取日時。</t>
+検体検査の場合は、検体採取日時。</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-本プロファイルでは、検体採取日時を設定し、必須とする。&lt;br/&gt;
-&lt;p/&gt;effectiveInstant&lt;br/&gt;
-instant型はイベント発生のログ時間であり、未使用とする。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-14(検査日時)&lt;br/&gt;OBX-19(分析日時)&lt;br/&gt;検体検査の場合は、OBX-14が該当。&lt;br/&gt;
-OBX-14(検査日時)のSS-MIX2仕様書内での説明：&lt;br/&gt;
-実際に検査された日時を示す。&lt;br/&gt;
-検体に対して行われる検査の場合、検体採取日時であり、患者に対して行われる測定の場合には、測定が行われた日時を設定する。&lt;br/&gt;
-&lt;p/&gt;effective[x].effectiveDateTime&lt;br/&gt;
-OBX-14(検査日時)
-&lt;p/&gt;effective[x].effectivePeriod&lt;br/&gt;
-検査結果の有効期限。例えば院内でルールがあれば設定してもよい。
-&lt;p/&gt;effective[x].effectiveTiming&lt;br/&gt;
-正確な採取時間が不明な場合、例えば「午前中」などの設定。SS-MIXでは該当なしだが、使用できても良い
-&lt;p/&gt;effective[x].effectiveInstant&lt;br/&gt;
-イベント発生のログ時間。SS-MIXでは使用しない。</t>
+【JP-Core仕様】本プロファイルでは、検体採取日時を設定し、必須とする。
+effectiveInstant
+instant型はイベント発生のログ時間であり、未使用とする。</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -1299,18 +1277,11 @@
   </si>
   <si>
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.
-&lt;br/&gt;この情報の発生日時。システム時刻であり、人が報告する時刻ではないことに注意。このリソースの発生時間と同じになる場合がある。</t>
+この情報の発生日時。システム時刻であり、人が報告する時刻ではないことに注意。このリソースの発生時間と同じになる場合がある。</t>
   </si>
   <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-検査結果が**システムにより**Observationリソースに格納または更新された日時。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;
-OBR-22(結果報告/状態変更-日時)&lt;br/&gt;
-MSH-7(メッセージ日時)&lt;br/&gt;
-OBX-14(検査日時)&lt;br/&gt;
-OBX-19(分析日時)
-&lt;br/&gt;検査結果に発生した最終イベント日時。検査結果がレビューされた時間等も含む。SS-MIX2の場合は、検査値が確定した時間に相当すると考えられる。</t>
+【JP-Core仕様】検査結果が**システムにより**Observationリソースに格納または更新された日時。</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1333,15 +1304,11 @@
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".
-&lt;br/&gt;検査値を確認した責任者。検査実施責任者情報。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-検査に直接責任を負う個人(つまり検査を実行、もしくは検証した人)の識別子。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;
-SS-MIX2ではいずれも未使用であるが、v2.5では次が該当する。&lt;br/&gt;
-OBX-15(実施者ID)&lt;br/&gt;OBX-16(検査責任者)&lt;br/&gt;OBX-18(装置ID)</t>
+検査値を確認した責任者。検査実施責任者情報。</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+【JP-Core仕様】検査に直接責任を負う個人(つまり検査を実行、もしくは検証した人)の識別子。</t>
   </si>
   <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
@@ -1370,36 +1337,35 @@
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.
-&lt;br/&gt;検体検査の結果として決定された情報。</t>
+検体検査の結果として決定された情報。</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-&lt;p/&gt;valueQuantity　：OBX-2＝「NM」の時の OBX-5(結果値)、OBX-6(単位)
-&lt;br/&gt;valueQuantity.value　：OBX-5(結果値)
-&lt;br/&gt;valueQuantity.comparator　：SS-MIX2 検体検査結果メッセージでは未使用となっているデータ型だが、SN型のSN.1(比較演算子)が該当する。検査値の「0未満」の場合の「未満」などに相当するコードを設定。
-&lt;br/&gt;valueQuantity.unit　：OBX-6(単位) CWE.2 テキスト
-&lt;br/&gt;valueQuantity.system　：OBX-6(単位) CWE.3 コード体系&lt;br/&gt;HL7では「ISO+」だが、ローカルコード99zzzのHL7標準の”ISO+"が示すOID、ローカルコードの場合はOIDを別途取得必要？
-&lt;br/&gt;valueQuantity.code　：OBX-6(単位) CWE.1 識別子&lt;br/&gt;
-&lt;p/&gt;valueCodeableConcept　：OBX-2＝「CWE」の時の OBX-5(結果値)
-&lt;br/&gt;valueCodeableConcept.coding　：SS-MIXの場合、CWEは正規コード＋代替コードの2種類登録可能。
-&lt;br/&gt;valueCodeableConcept.coding.system　：CWE.3 or 6 コード体系。対象コードの OIDを設定
-&lt;br/&gt;valueCodeableConcept.coding.version　：CWE.7 コード体系バージョン ID
-&lt;br/&gt;valueCodeableConcept.coding.code　：CWE.1 or 4 識別子。対象コードシステムのコード
-&lt;br/&gt;valueCodeableConcept.coding.display　：CWE.2 or 5 テキスト。対象コードの名称
-&lt;br/&gt;valueCodeableConcept.coding.userselected　：未使用とする。
-&lt;br/&gt;valueCodeableConcept.text　：CWE.2 テキスト。coding.display と同じ。
-&lt;p/&gt;valueString　：OBX-2＝「ST」の時の OBX-5(結果値)&lt;br/&gt;
-&lt;p/&gt;以下のデータ型はSS-MIX2では未使用のため、未使用とした。今後の議論で使用の必要性が出れば復活させる。
-&lt;br/&gt;valueBoolean&lt;br/&gt;
-&lt;br/&gt;valueInteger　：OBX-2＝「NW」の時の OBX-5(結果値)
-&lt;br/&gt;valueRange&lt;br/&gt;
-&lt;br/&gt;valueRatio&lt;br/&gt;
-&lt;br/&gt;valueSampledData&lt;br/&gt;
-&lt;br/&gt;valueTime　：OBX-2＝「TM」の時の OBX-5(結果値)
-&lt;br/&gt;valueDateTime　：OBX-2＝「DT」の時の OBX-5(結果値)
-&lt;br/&gt;valuePeriod&lt;br/&gt;
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-2(値型)&lt;br/&gt;OBX-5(結果値)&lt;br/&gt;OBX-6(単位)&lt;br/&gt;</t>
+【JP-Core仕様】valueQuantity　：OBX-2＝「NM」の時の OBX-5(結果値)、OBX-6(単位)
+valueQuantity.value　：OBX-5(結果値)
+valueQuantity.comparator　：SS-MIX2 検体検査結果メッセージでは未使用となっているデータ型だが、SN型のSN.1(比較演算子)が該当する。検査値の「0未満」の場合の「未満」などに相当するコードを設定。
+valueQuantity.unit　：OBX-6(単位) CWE.2 テキスト
+valueQuantity.system　：OBX-6(単位) CWE.3 コード体系
+HL7では「ISO+」だが、ローカルコード99zzzのHL7標準の”ISO+"が示すOID、ローカルコードの場合はOIDを別途取得必要？
+valueQuantity.code　：OBX-6(単位) CWE.1 識別子
+valueCodeableConcept　：OBX-2＝「CWE」の時の OBX-5(結果値)
+valueCodeableConcept.coding　：SS-MIXの場合、CWEは正規コード＋代替コードの2種類登録可能。
+valueCodeableConcept.coding.system　：CWE.3 or 6 コード体系。対象コードの OIDを設定
+valueCodeableConcept.coding.version　：CWE.7 コード体系バージョン ID
+valueCodeableConcept.coding.code　：CWE.1 or 4 識別子。対象コードシステムのコード
+valueCodeableConcept.coding.display　：CWE.2 or 5 テキスト。対象コードの名称
+valueCodeableConcept.coding.userselected　：未使用とする。
+valueCodeableConcept.text　：CWE.2 テキスト。coding.display と同じ。
+valueString　：OBX-2＝「ST」の時の OBX-5(結果値)
+以下のデータ型はSS-MIX2では未使用のため、未使用とした。今後の議論で使用の必要性が出れば復活させる。
+valueBoolean
+valueInteger　：OBX-2＝「NW」の時の OBX-5(結果値)
+valueRange
+valueRatio
+valueSampledData
+valueTime　：OBX-2＝「TM」の時の OBX-5(結果値)
+valueDateTime　：OBX-2＝「DT」の時の OBX-5(結果値)
+valuePeriod</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -1428,19 +1394,15 @@
   </si>
   <si>
     <t>Provides a reason why the expected value in the element Observation.value[x] is missing.
-&lt;br/&gt;検査結果値が欠落している理由。</t>
+検査結果値が欠落している理由。</t>
   </si>
   <si>
     <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-SS-MIX2で未使用だが、valueの欠落時に使用する必要があり、重要な項目である。&lt;br/&gt;
-制約「obs-6」に示す通り、valueが存在する場合、当該項目は存在してはならない。&lt;br/&gt;
+【JP-Core仕様】SS-MIX2で未使用だが、valueの欠落時に使用する必要があり、重要な項目である。
+制約「obs-6」に示す通り、valueが存在する場合、当該項目は存在してはならない。
 textのみでの使用は基本的に不可とし、必ずcodingを設定すること。
-&lt;br/&gt;【要検討】&lt;br/&gt;
-拡張可コード体系「DataAbsentReason」を拡張の要否を含め検討。&lt;br/&gt;
-(unknown |   asked-unknown |   temp-unknown |   not-asked |   asked-declined | masked | not-applicable | unsupported | as-text | error |   not-a-number |   negative-infinity |   positive-infinity | not-performed | not-permitted)
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;SS-MIX2では該当なし。</t>
+(unknown |   asked-unknown |   temp-unknown |   not-asked |   asked-declined | masked | not-applicable | unsupported | as-text | error |   not-a-number |   negative-infinity |   positive-infinity | not-performed | not-permitted)</t>
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
@@ -1470,19 +1432,17 @@
   </si>
   <si>
     <t>A categorical assessment of an observation value.  For example, high, low, normal.
-&lt;br/&gt;検査結果値の、（高、低、正常）といったカテゴリー評価。結果報告書に記載されることもある情報。</t>
+検査結果値の、（高、低、正常）といったカテゴリー評価。結果報告書に記載されることもある情報。</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-拡張可コード表「ObservationInterpretationCodes」を使用する。&lt;br/&gt;
-コード表が大きいため、下記参照。&lt;br/&gt;
-https://www.hl7.org/fhir/valueset-observation-interpretation.html
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-8(異常フラグ) に相当する。</t>
+【JP-Core仕様】拡張可コード表「ObservationInterpretationCodes」を使用する。
+コード表が大きいため、下記参照。
+https://www.hl7.org/fhir/valueset-observation-interpretation.html</t>
   </si>
   <si>
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.
-&lt;br/&gt;特に数値結果については、結果の重要性を完全に理解するために解釈を必要とする場合がある。</t>
+特に数値結果については、結果の重要性を完全に理解するために解釈を必要とする場合がある。</t>
   </si>
   <si>
     <t>Codes identifying interpretations of observations.</t>
@@ -1514,12 +1474,10 @@
   </si>
   <si>
     <t>Comments about the observation or the results.
-&lt;br/&gt;検査、あるいは結果に関するコメント。フリーテキストの追加情報として使用可能。</t>
-  </si>
-  <si>
-    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.
-&lt;p/&gt;【要検討】検体検査の親要素のコメントと子要素のコメントの取り扱いをどうするか（血算の中のAlｂ値、等）
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;NTE-3(コメント)(JAHIS標準)&lt;br/&gt;SS-MIX2では未使用。JAHISではOBXに対して設定できるNTEセグメント内容。</t>
+検査、あるいは結果に関するコメント。フリーテキストの追加情報として使用可能。</t>
+  </si>
+  <si>
+    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
   </si>
   <si>
     <t>Need to be able to provide free text additional information.
@@ -1551,7 +1509,7 @@
     <t>The individual responsible for making the annotation.</t>
   </si>
   <si>
-    <t>Organization is used when there's no need for specific attribution as to who made the comment.&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;v2 NTE セグメントでは該当なし。よって未使用。(2020/1/15)</t>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
   </si>
   <si>
     <t>Annotation.author[x]</t>
@@ -1573,9 +1531,6 @@
     <t>Indicates when this particular annotation was made.</t>
   </si>
   <si>
-    <t>&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;v2 NTE セグメントでは該当なし。よって未使用。(2020/1/15)</t>
-  </si>
-  <si>
     <t>Annotation.time</t>
   </si>
   <si>
@@ -1595,7 +1550,7 @@
     <t>The text of the annotation in markdown format.</t>
   </si>
   <si>
-    <t>Systems are not required to have markdown support, so the text should be readable without markdown processing. The markdown syntax is GFM - see https://github.github.com/gfm/&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;コメント内容（NTE-3 または、NTE-4（CWE）の場合は、NTE-4.2 を設定）(2020/1/15)</t>
+    <t>Systems are not required to have markdown support, so the text should be readable without markdown processing. The markdown syntax is GFM - see https://github.github.com/gfm/</t>
   </si>
   <si>
     <t>Annotation.text</t>
@@ -1611,23 +1566,18 @@
   </si>
   <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).
-&lt;br/&gt;検査が行われた患者の体の部位。検体検査に関しては、当面は使用しない。</t>
+検査が行われた患者の体の部位。検体検査に関しては、当面は使用しない。</t>
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-当面は未使用とする。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;SPM-10 (CWE) が該当。SS-MIX2では未使用。</t>
+【JP-Core仕様】当面は未使用とする。</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationBodySite_VS</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1649,24 +1599,19 @@
   </si>
   <si>
     <t>Indicates the mechanism used to perform the observation.
-&lt;br/&gt;検体検査の検査方法、測定方法。</t>
+検体検査の検査方法、測定方法。</t>
   </si>
   <si>
     <t>Only used if not implicit in code for Observation.code.
-&lt;br/&gt;Observation.code の code から測定方法が暗黙的でない場合にのみ使用する。
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-Observation.code に JLAC10コードを使用する場合、測定方法コードが含まれているため method は使用しない。Observation.code から測定方法が判明しない場合や、実際の測定方法が異なる場合に使用することになるが、現状では運用が困難と想定されるため、当面は未使用とする。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-17(検査方法) (CWE)&lt;br/&gt;SS-MIX2では未使用。</t>
+Observation.code の code から測定方法が暗黙的でない場合にのみ使用する。
+【JP-Core仕様】Observation.code に JLAC10コードを使用する場合、測定方法コードが含まれているため method は使用しない。Observation.code から測定方法が判明しない場合や、実際の測定方法が異なる場合に使用することになるが、現状では運用が困難と想定されるため、当面は未使用とする。</t>
   </si>
   <si>
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.
-&lt;br/&gt;場合により、測定方法は結果に影響を与える可能性があるため、結果を比較できるかどうかを判断したり、結果の重要性を判断したりするために使用される。</t>
-  </si>
-  <si>
-    <t>Methods for simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+場合により、測定方法は結果に影響を与える可能性があるため、結果を比較できるかどうかを判断したり、結果の重要性を判断したりするために使用される。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationMethod_VS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1686,13 +1631,11 @@
   </si>
   <si>
     <t>The specimen that was used when this observation was made.
-&lt;br/&gt;この検査に使用された検体（標本）。</t>
+この検査に使用された検体（標本）。</t>
   </si>
   <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-検体検査プロファイルでは必須とする。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;SPM セグメントに相当する。</t>
+【JP-Core仕様】検体検査プロファイルでは必須とする。</t>
   </si>
   <si>
     <t>&lt; 123038009 |Specimen|</t>
@@ -1718,13 +1661,11 @@
   </si>
   <si>
     <t>The device used to generate the observation data.
-&lt;br/&gt;検査装置、機器。</t>
+検査装置、機器。</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-検査に使用した機器等の情報に使用する。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-18 装置ID (EI)&lt;br/&gt;SS-MIX2では未使用。</t>
+【JP-Core仕様】検査に使用した機器等の情報に使用する。</t>
   </si>
   <si>
     <t>&lt; 49062001 |Device|</t>
@@ -1750,13 +1691,11 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.
-&lt;br/&gt;推奨範囲として結果値を解釈するためのガイダンス。基準値。</t>
+推奨範囲として結果値を解釈するためのガイダンス。基準値。</t>
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-可能な限りlow、highに構造化すべき。構造化できない場合、あるいはlow、highに該当しない場合はtextを使用。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-7 基準値範囲 （ST文字列型）&lt;br/&gt;ex)    6.5-8.2  、&gt;10、&lt;15&lt;br/&gt;</t>
+【JP-Core仕様】可能な限りlow、highに構造化すべき。構造化できない場合、あるいはlow、highに該当しない場合はtextを使用。</t>
   </si>
   <si>
     <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.
@@ -1809,7 +1748,7 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-7 基準値範囲 （ST文字列型）</t>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t xml:space="preserve">obs-3
@@ -1841,10 +1780,10 @@
   </si>
   <si>
     <t>Codes to indicate the what part of the targeted reference population it applies to. For example, the normal or therapeutic range.
-&lt;br/&gt;対象となる母集団のどの部分に適用するかを示すコード。正常範囲、要治療範囲、など。</t>
-  </si>
-  <si>
-    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal range is assumed.&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-10 異常検査の特質&lt;br/&gt;SS-MIX2では未使用</t>
+対象となる母集団のどの部分に適用するかを示すコード。正常範囲、要治療範囲、など。</t>
+  </si>
+  <si>
+    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal range is assumed.</t>
   </si>
   <si>
     <t>Need to be able to say what kind of reference range this is - normal, recommended, therapeutic, etc.,  - for proper interpretation.</t>
@@ -1875,10 +1814,10 @@
   </si>
   <si>
     <t>Codes to indicate the target population this reference range applies to.  For example, a reference range may be based on the normal population or a particular sex or race.  Multiple `appliesTo`  are interpreted as an "AND" of the target populations.  For example, to represent a target population of African American females, both a code of female and a code for African American would be used.
-&lt;br/&gt;基準値が適用される母集団を示すコード。人種、性別など。</t>
-  </si>
-  <si>
-    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-10 異常検査の特質&lt;br/&gt;基準値の適応対象（地域）を示す。SS-MIX2では未使用</t>
+基準値が適用される母集団を示すコード。人種、性別など。</t>
+  </si>
+  <si>
+    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
   </si>
   <si>
     <t>Need to be able to identify the target population for proper interpretation.</t>
@@ -1901,10 +1840,10 @@
   </si>
   <si>
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.
-&lt;br/&gt;基準値が適用される年齢。新生児の場合、週数もありうる。</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;基準値の適応対象年齢を示す。SS-MIX2では該当フィールドなし。</t>
+基準値が適用される年齢。新生児の場合、週数もありうる。</t>
+  </si>
+  <si>
+    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
   </si>
   <si>
     <t>Some analytes vary greatly over age.</t>
@@ -1920,10 +1859,7 @@
   </si>
   <si>
     <t>Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".
-&lt;br/&gt;量的範囲で表せない場合などに使用する。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-7 基準値範囲 （ST文字列型）</t>
+量的範囲で表せない場合などに使用する。</t>
   </si>
   <si>
     <t>value:ST</t>
@@ -1940,15 +1876,11 @@
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.
-&lt;br/&gt;この検査が含まれるグループを示す。</t>
+この検査が含まれるグループを示す。</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-&lt;p/&gt;【JP仕様】&lt;br/&gt;
-1検査で複数の検査項目が実施される場合の親検査項目を設定する。
-&lt;p/&gt;【要検討】&lt;br/&gt;
-componentと合わせて、具体的な検査項目、使用例で、使い分けを明確にする。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;（OBX-4 検査副 ID）</t>
+【JP-Core仕様】1検査で複数の検査項目が実施される場合の親検査項目を設定する。</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1968,12 +1900,10 @@
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.
-&lt;br/&gt;この検査値の発生元である関連リソース。例えば他のObservation を受けて、本検査値が発生した場合など。</t>
-  </si>
-  <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
-&lt;p/&gt;【要検討】&lt;br/&gt;検体検査としての用途として具体例を検討。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-4 検査副 ID</t>
+この検査値の発生元である関連リソース。例えば他のObservation を受けて、本検査値が発生した場合など。</t>
+  </si>
+  <si>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1986,14 +1916,10 @@
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.
-&lt;br/&gt;一度のタイミングでの1回の検査で複数の結果を同時に得る場合にのみ使用される。例えば、血圧の収縮期、拡張期。新生児のApgarスコア。質問に対する複数の回答（飲んだアルコールの種類、など）。</t>
-  </si>
-  <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
-&lt;p/&gt;【要検討】&lt;br/&gt;
-hasMemberと合わせて、具体的な検査項目、使用例で、使い分けを明確にする。
-&lt;br/&gt;検体検査で、該当する検査項目の調査が必要。分析器の都合でセットにしたい場合と、検査項目としてセットにしたい場合がある。後者か。血圧の収縮期だけ欲しい場合は、どうするのか。
-&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-4 検査副 ID</t>
+一度のタイミングでの1回の検査で複数の結果を同時に得る場合にのみ使用される。例えば、血圧の収縮期、拡張期。新生児のApgarスコア。質問に対する複数の回答（飲んだアルコールの種類、など）。</t>
+  </si>
+  <si>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.
@@ -2024,7 +1950,7 @@
     <t>Describes what was observed. Sometimes this is called the observation "code".</t>
   </si>
   <si>
-    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;Observation.code と同様(2020/1/15)</t>
+    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
@@ -2050,7 +1976,7 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;Observation.value と同様(2020/1/15)</t>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2078,7 +2004,7 @@
     <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
   </si>
   <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-8 異常フラグ(2020/1/15)</t>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
   </si>
   <si>
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
@@ -2093,7 +2019,7 @@
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
   <si>
-    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.&lt;p/&gt;---SS-MIX2メモ---&lt;br/&gt;OBX-7 基準値範囲 （ST文字列型）(2020/1/15)</t>
+    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
   </si>
   <si>
     <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
@@ -2403,7 +2329,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2436,7 +2362,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.45703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -5058,7 +4984,7 @@
         <v>91</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -5119,16 +5045,14 @@
         <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>253</v>
@@ -5155,10 +5079,10 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -5166,7 +5090,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5281,7 +5205,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5398,7 +5322,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5406,10 +5330,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>81</v>
@@ -5421,19 +5345,19 @@
         <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -5482,7 +5406,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5503,10 +5427,10 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5517,7 +5441,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5543,16 +5467,16 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
@@ -5601,7 +5525,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5622,10 +5546,10 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5636,11 +5560,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="C28" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5656,22 +5582,22 @@
         <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>180</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="N28" t="s" s="2">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
@@ -5681,7 +5607,7 @@
         <v>81</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>81</v>
@@ -5699,10 +5625,10 @@
         <v>115</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5720,13 +5646,13 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>81</v>
@@ -5735,35 +5661,35 @@
         <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>91</v>
@@ -5775,19 +5701,23 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>159</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5811,13 +5741,13 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5835,10 +5765,10 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>91</v>
@@ -5847,41 +5777,41 @@
         <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>162</v>
+        <v>297</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>81</v>
@@ -5893,17 +5823,15 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>81</v>
@@ -5940,31 +5868,31 @@
         <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>81</v>
@@ -5987,15 +5915,15 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>80</v>
@@ -6007,23 +5935,21 @@
         <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>164</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>81</v>
       </c>
@@ -6059,19 +5985,19 @@
         <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>270</v>
+        <v>168</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -6083,7 +6009,7 @@
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>81</v>
@@ -6092,10 +6018,10 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -6106,7 +6032,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6114,10 +6040,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -6126,19 +6052,23 @@
         <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>159</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -6186,19 +6116,19 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>161</v>
+        <v>271</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
@@ -6207,10 +6137,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6221,18 +6151,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -6244,17 +6174,15 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -6291,31 +6219,31 @@
         <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -6338,18 +6266,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
@@ -6358,23 +6286,21 @@
         <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>303</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>164</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6410,31 +6336,31 @@
         <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>307</v>
+        <v>168</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
@@ -6443,10 +6369,10 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6457,7 +6383,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6480,18 +6406,20 @@
         <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6539,7 +6467,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6560,10 +6488,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6574,7 +6502,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6597,20 +6525,18 @@
         <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6658,7 +6584,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6679,10 +6605,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6693,7 +6619,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6716,19 +6642,19 @@
         <v>92</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6777,7 +6703,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6798,10 +6724,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6812,7 +6738,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6835,19 +6761,19 @@
         <v>92</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6896,7 +6822,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6917,10 +6843,10 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6931,7 +6857,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6939,7 +6865,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>91</v>
@@ -6954,19 +6880,19 @@
         <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>338</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>274</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -7015,7 +6941,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>278</v>
+        <v>343</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -7036,10 +6962,10 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>280</v>
+        <v>345</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -7050,7 +6976,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7073,19 +6999,19 @@
         <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>346</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -7134,7 +7060,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -7149,19 +7075,19 @@
         <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>352</v>
+        <v>280</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -7169,7 +7095,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7177,10 +7103,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
@@ -7192,18 +7118,20 @@
         <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>81</v>
       </c>
@@ -7251,13 +7179,13 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
@@ -7266,19 +7194,19 @@
         <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>291</v>
+        <v>356</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -7286,18 +7214,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
@@ -7309,20 +7237,18 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K42" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>367</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>81</v>
       </c>
@@ -7370,13 +7296,13 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>81</v>
@@ -7385,19 +7311,19 @@
         <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7405,15 +7331,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>91</v>
@@ -7428,19 +7354,19 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -7489,7 +7415,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -7504,19 +7430,19 @@
         <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7524,15 +7450,15 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>91</v>
@@ -7547,18 +7473,20 @@
         <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7606,7 +7534,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7621,19 +7549,19 @@
         <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7641,7 +7569,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7652,7 +7580,7 @@
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7664,20 +7592,18 @@
         <v>92</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7725,13 +7651,13 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
@@ -7740,19 +7666,19 @@
         <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7760,7 +7686,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7771,7 +7697,7 @@
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>81</v>
@@ -7783,19 +7709,19 @@
         <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -7844,42 +7770,42 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>408</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>411</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7899,22 +7825,22 @@
         <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>180</v>
+        <v>406</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7939,13 +7865,13 @@
         <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>418</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7963,7 +7889,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7972,7 +7898,7 @@
         <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>103</v>
@@ -7981,35 +7907,35 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>81</v>
@@ -8024,16 +7950,16 @@
         <v>180</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -8061,10 +7987,10 @@
         <v>185</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -8082,16 +8008,16 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>103</v>
@@ -8100,28 +8026,28 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>430</v>
+        <v>134</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -8140,19 +8066,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>434</v>
+        <v>180</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -8177,13 +8103,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -8201,7 +8127,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -8219,24 +8145,24 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8247,7 +8173,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -8259,16 +8185,20 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>438</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>159</v>
+        <v>439</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8316,19 +8246,19 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>161</v>
+        <v>437</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>81</v>
@@ -8337,10 +8267,10 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>162</v>
+        <v>444</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8351,18 +8281,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>81</v>
@@ -8374,17 +8304,15 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -8421,31 +8349,31 @@
         <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>81</v>
@@ -8468,18 +8396,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>81</v>
@@ -8488,19 +8416,19 @@
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>444</v>
+        <v>137</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>445</v>
+        <v>138</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>446</v>
+        <v>164</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>447</v>
+        <v>140</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8538,31 +8466,31 @@
         <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>448</v>
+        <v>168</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>81</v>
@@ -8571,10 +8499,10 @@
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>449</v>
+        <v>162</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8585,7 +8513,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8608,16 +8536,16 @@
         <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8667,7 +8595,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8691,7 +8619,7 @@
         <v>134</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8702,7 +8630,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8710,7 +8638,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>91</v>
@@ -8725,17 +8653,15 @@
         <v>92</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>81</v>
@@ -8784,10 +8710,10 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>91</v>
@@ -8808,7 +8734,7 @@
         <v>134</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8819,7 +8745,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8827,7 +8753,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>91</v>
@@ -8839,19 +8765,19 @@
         <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>180</v>
+        <v>461</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8877,13 +8803,13 @@
         <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>469</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>470</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>81</v>
@@ -8901,10 +8827,10 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>91</v>
@@ -8919,24 +8845,24 @@
         <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>472</v>
+        <v>134</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>474</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8962,17 +8888,15 @@
         <v>180</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8996,13 +8920,11 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -9020,7 +8942,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -9038,24 +8960,24 @@
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>81</v>
+        <v>473</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>81</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9063,7 +8985,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>91</v>
@@ -9078,18 +9000,20 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>485</v>
+        <v>180</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
       </c>
@@ -9113,13 +9037,11 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -9137,7 +9059,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -9155,24 +9077,24 @@
         <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>489</v>
+        <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9180,7 +9102,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>91</v>
@@ -9195,16 +9117,16 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9254,7 +9176,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -9272,24 +9194,24 @@
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9300,7 +9222,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -9312,20 +9234,18 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9373,42 +9293,42 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9419,7 +9339,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>81</v>
@@ -9431,16 +9351,20 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>93</v>
+        <v>504</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>159</v>
+        <v>505</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9488,19 +9412,19 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>161</v>
+        <v>503</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9509,10 +9433,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>510</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>162</v>
+        <v>511</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9527,14 +9451,14 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>81</v>
@@ -9546,17 +9470,15 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>81</v>
@@ -9605,19 +9527,19 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>81</v>
@@ -9644,7 +9566,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>514</v>
+        <v>136</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9657,26 +9579,24 @@
         <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>515</v>
+        <v>138</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>516</v>
+        <v>164</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N62" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9724,7 +9644,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>517</v>
+        <v>168</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9748,7 +9668,7 @@
         <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9759,41 +9679,43 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>81</v>
+        <v>515</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>519</v>
+        <v>137</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9847,13 +9769,13 @@
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>523</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
@@ -9862,10 +9784,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>525</v>
+        <v>134</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9876,7 +9798,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9899,16 +9821,16 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9958,7 +9880,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9967,7 +9889,7 @@
         <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>103</v>
@@ -9979,10 +9901,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9993,7 +9915,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -10016,20 +9938,18 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>180</v>
+        <v>520</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>81</v>
       </c>
@@ -10053,13 +9973,13 @@
         <v>81</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>535</v>
+        <v>81</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>536</v>
+        <v>81</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>81</v>
@@ -10077,7 +9997,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -10086,7 +10006,7 @@
         <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>524</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>103</v>
@@ -10095,13 +10015,13 @@
         <v>81</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>537</v>
+        <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>431</v>
+        <v>530</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -10112,7 +10032,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10123,7 +10043,7 @@
         <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>81</v>
@@ -10138,16 +10058,16 @@
         <v>180</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -10172,13 +10092,13 @@
         <v>81</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>468</v>
+        <v>115</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>81</v>
@@ -10196,13 +10116,13 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>81</v>
@@ -10214,13 +10134,13 @@
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -10231,7 +10151,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10242,7 +10162,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -10254,19 +10174,19 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>547</v>
+        <v>180</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -10291,13 +10211,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>81</v>
+        <v>545</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>81</v>
+        <v>546</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -10315,13 +10235,13 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>81</v>
@@ -10333,13 +10253,13 @@
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>81</v>
+        <v>538</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>81</v>
+        <v>539</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>552</v>
+        <v>435</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10350,7 +10270,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10373,18 +10293,20 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>93</v>
+        <v>548</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10432,7 +10354,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10453,10 +10375,10 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10467,7 +10389,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10478,7 +10400,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>81</v>
@@ -10487,19 +10409,19 @@
         <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>559</v>
+        <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>562</v>
+        <v>325</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10549,13 +10471,13 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>81</v>
@@ -10570,10 +10492,10 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10584,7 +10506,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10607,16 +10529,16 @@
         <v>92</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10666,7 +10588,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10690,7 +10612,7 @@
         <v>563</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10701,7 +10623,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10724,20 +10646,18 @@
         <v>92</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10785,7 +10705,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10806,10 +10726,10 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10820,7 +10740,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10831,7 +10751,7 @@
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>81</v>
@@ -10840,19 +10760,23 @@
         <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>93</v>
+        <v>504</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>159</v>
+        <v>572</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10900,19 +10824,19 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>161</v>
+        <v>571</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>81</v>
@@ -10921,10 +10845,10 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>81</v>
+        <v>576</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>162</v>
+        <v>577</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10935,18 +10859,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>81</v>
@@ -10958,17 +10882,15 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>81</v>
@@ -11017,19 +10939,19 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>81</v>
@@ -11052,11 +10974,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>514</v>
+        <v>136</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11069,26 +10991,24 @@
         <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>515</v>
+        <v>138</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>516</v>
+        <v>164</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N74" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11136,7 +11056,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>517</v>
+        <v>168</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -11160,7 +11080,7 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11171,42 +11091,42 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>81</v>
+        <v>515</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>583</v>
+        <v>517</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>584</v>
+        <v>140</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>81</v>
@@ -11231,13 +11151,13 @@
         <v>81</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>585</v>
+        <v>81</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>586</v>
+        <v>81</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>81</v>
@@ -11255,34 +11175,34 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>581</v>
+        <v>518</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>587</v>
+        <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>292</v>
+        <v>134</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>81</v>
@@ -11290,7 +11210,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11298,7 +11218,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>91</v>
@@ -11313,19 +11233,19 @@
         <v>92</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>589</v>
+        <v>180</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>406</v>
+        <v>291</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>81</v>
@@ -11350,13 +11270,13 @@
         <v>81</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>81</v>
+        <v>585</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>81</v>
+        <v>586</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>81</v>
@@ -11374,10 +11294,10 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>91</v>
@@ -11392,24 +11312,24 @@
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>409</v>
+        <v>296</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>410</v>
+        <v>297</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>411</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11429,22 +11349,22 @@
         <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>180</v>
+        <v>589</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>81</v>
@@ -11469,13 +11389,13 @@
         <v>81</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>418</v>
+        <v>81</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>81</v>
@@ -11493,7 +11413,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -11502,7 +11422,7 @@
         <v>91</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>103</v>
@@ -11511,35 +11431,35 @@
         <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>81</v>
+        <v>593</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>81</v>
@@ -11554,16 +11474,16 @@
         <v>180</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>602</v>
+        <v>420</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>81</v>
@@ -11591,10 +11511,10 @@
         <v>185</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>81</v>
@@ -11612,16 +11532,16 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>103</v>
@@ -11630,28 +11550,28 @@
         <v>81</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>430</v>
+        <v>134</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11670,19 +11590,19 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11707,13 +11627,13 @@
         <v>81</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>81</v>
@@ -11731,7 +11651,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11749,18 +11669,137 @@
         <v>81</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>509</v>
+        <v>434</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AN79" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO79" t="s" s="2">
+      <c r="AM80" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T09:08:26+00:00</t>
+    <t>2022-08-17T12:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1438,7 +1438,7 @@
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
 【JP-Core仕様】拡張可コード表「ObservationInterpretationCodes」を使用する。
 コード表が大きいため、下記参照。
-https://www.hl7.org/fhir/valueset-observation-interpretation.html</t>
+https://www.hl7.org/fhir/R4/valueset-observation-interpretation.html</t>
   </si>
   <si>
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T12:11:07+00:00</t>
+    <t>2022-08-29T14:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -489,7 +489,7 @@
 この検査項目に割り当てられた一意の識別子。リソースの識別子やシステム的なシーケンスではなく、ビジネスID。</t>
   </si>
   <si>
-    <t>【JP-Core仕様】当該検査項目に対して、施設内で割り振られる一意の識別子があればそれを使用する。なければ次のルールを参考に一意となる識別子を生成し設定する。
+    <t>【JP Core仕様】当該検査項目に対して、施設内で割り振られる一意の識別子があればそれを使用する。なければ次のルールを参考に一意となる識別子を生成し設定する。
 アプリケーション側のデータベースにおけるフィールド長の定義については、最低64バイトを確保すること。
 --- 参考 ---
 次の項目を順にセパレータ「_(アンダースコア)」で連結し、 identifier.value に設定する。グループ項目でない場合など、該当コード／番号がない場合はセパレータを連続で連結する。各コードはローカルコードを使用し、必ず設定できること。
@@ -734,7 +734,7 @@
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-【JP-Core仕様】オーダ情報がある場合、本プロファイルでは ServiceRequest のリソースを参照する。オーダIDの情報はここで使用する。</t>
+【JP Core仕様】オーダ情報がある場合、本プロファイルでは ServiceRequest のリソースを参照する。オーダIDの情報はここで使用する。</t>
   </si>
   <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -768,7 +768,7 @@
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
-【JP-Core仕様】当面は使用しない。</t>
+【JP Core仕様】当面は使用しない。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -791,7 +791,7 @@
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
-【JP-Core仕様】v2.5の「F」に相当する値は「final」であるが、ここでは 必須コード表「ObservationStatus」より、全てのコード値を使用可とする。
+【JP Core仕様】v2.5の「F」に相当する値は「final」であるが、ここでは 必須コード表「ObservationStatus」より、全てのコード値を使用可とする。
 (registered | preliminary | final | amended |   corrected | cancelled | entered-in-error | unknown)</t>
   </si>
   <si>
@@ -830,7 +830,7 @@
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP-Core仕様】推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。
+【JP Core仕様】推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。
 (social-history | vital-signs | imaging | laboratory | procedure | survey | exam | therapy | activity)</t>
   </si>
   <si>
@@ -873,7 +873,7 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-【JP-Core仕様】推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。</t>
+【JP Core仕様】推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -989,7 +989,7 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-【JP-Core仕様】SS-MIX2にならい、標準コード、ローカルコードの2つを設定可能とし、いずれか一方は必須とする。さらにJLAC10とJLAC11などの複数の標準コードも設定できるよう、上限は設けない。
+【JP Core仕様】SS-MIX2にならい、標準コード、ローカルコードの2つを設定可能とし、いずれか一方は必須とする。さらにJLAC10とJLAC11などの複数の標準コードも設定できるよう、上限は設けない。
 標準コード、ローカルコードの2つまで格納可。順不同。
 SS-MIX2だとCWE.1 ～CWE.3に標準コード、CWE.4～CWE.6にローカルコード、など（順不同）。</t>
   </si>
@@ -1011,7 +1011,7 @@
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.
-【JP-Core仕様】標準コードの場合、JLAC10を表すURIを設定。
+【JP Core仕様】標準コードの場合、JLAC10を表すURIを設定。
 URIは本WGで定義する。</t>
   </si>
   <si>
@@ -1108,7 +1108,7 @@
   </si>
   <si>
     <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.
-【JP-Core仕様】当面は未使用とする。</t>
+【JP Core仕様】当面は未使用とする。</t>
   </si>
   <si>
     <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
@@ -1131,7 +1131,7 @@
   </si>
   <si>
     <t>Very often the text is the same as a displayName of one of the codings.
-【JP-Core仕様】本プロファイルでは、表示名として必須とする。
+【JP Core仕様】本プロファイルでは、表示名として必須とする。
 多くの場合、coding.display と同一になるが、coding.display に異なる複数の表現が格納される場合を想定し、code間で共通の表現として必須とする。</t>
   </si>
   <si>
@@ -1150,7 +1150,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP-Core仕様】本プロファイルでは、Patient 限定、かつ必須とする。</t>
+【JP Core仕様】本プロファイルでは、Patient 限定、かつ必須とする。</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -1183,7 +1183,7 @@
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
-【JP-Core仕様】当面は未使用とする。</t>
+【JP Core仕様】当面は未使用とする。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1208,7 +1208,7 @@
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
-【JP-Core仕様】入院外来の区別や所在場所、担当診療科の情報に使用する。
+【JP Core仕様】入院外来の区別や所在場所、担当診療科の情報に使用する。
 ※本プロファイルの用途では通常は必須と考えられるが、ユースケースにより使用されない場合を考慮し、1..1に制約しない。</t>
   </si>
   <si>
@@ -1246,7 +1246,7 @@
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP-Core仕様】本プロファイルでは、検体採取日時を設定し、必須とする。
+【JP Core仕様】本プロファイルでは、検体採取日時を設定し、必須とする。
 effectiveInstant
 instant型はイベント発生のログ時間であり、未使用とする。</t>
   </si>
@@ -1281,7 +1281,7 @@
   </si>
   <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.
-【JP-Core仕様】検査結果が**システムにより**Observationリソースに格納または更新された日時。</t>
+【JP Core仕様】検査結果が**システムにより**Observationリソースに格納または更新された日時。</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1308,7 +1308,7 @@
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-【JP-Core仕様】検査に直接責任を負う個人(つまり検査を実行、もしくは検証した人)の識別子。</t>
+【JP Core仕様】検査に直接責任を負う個人(つまり検査を実行、もしくは検証した人)の識別子。</t>
   </si>
   <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
@@ -1341,7 +1341,7 @@
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP-Core仕様】valueQuantity　：OBX-2＝「NM」の時の OBX-5(結果値)、OBX-6(単位)
+【JP Core仕様】valueQuantity　：OBX-2＝「NM」の時の OBX-5(結果値)、OBX-6(単位)
 valueQuantity.value　：OBX-5(結果値)
 valueQuantity.comparator　：SS-MIX2 検体検査結果メッセージでは未使用となっているデータ型だが、SN型のSN.1(比較演算子)が該当する。検査値の「0未満」の場合の「未満」などに相当するコードを設定。
 valueQuantity.unit　：OBX-6(単位) CWE.2 テキスト
@@ -1399,7 +1399,7 @@
   <si>
     <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.
-【JP-Core仕様】SS-MIX2で未使用だが、valueの欠落時に使用する必要があり、重要な項目である。
+【JP Core仕様】SS-MIX2で未使用だが、valueの欠落時に使用する必要があり、重要な項目である。
 制約「obs-6」に示す通り、valueが存在する場合、当該項目は存在してはならない。
 textのみでの使用は基本的に不可とし、必ずcodingを設定すること。
 (unknown |   asked-unknown |   temp-unknown |   not-asked |   asked-declined | masked | not-applicable | unsupported | as-text | error |   not-a-number |   negative-infinity |   positive-infinity | not-performed | not-permitted)</t>
@@ -1436,7 +1436,7 @@
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
-【JP-Core仕様】拡張可コード表「ObservationInterpretationCodes」を使用する。
+【JP Core仕様】拡張可コード表「ObservationInterpretationCodes」を使用する。
 コード表が大きいため、下記参照。
 https://www.hl7.org/fhir/R4/valueset-observation-interpretation.html</t>
   </si>
@@ -1571,7 +1571,7 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).
-【JP-Core仕様】当面は未使用とする。</t>
+【JP Core仕様】当面は未使用とする。</t>
   </si>
   <si>
     <t>example</t>
@@ -1604,7 +1604,7 @@
   <si>
     <t>Only used if not implicit in code for Observation.code.
 Observation.code の code から測定方法が暗黙的でない場合にのみ使用する。
-【JP-Core仕様】Observation.code に JLAC10コードを使用する場合、測定方法コードが含まれているため method は使用しない。Observation.code から測定方法が判明しない場合や、実際の測定方法が異なる場合に使用することになるが、現状では運用が困難と想定されるため、当面は未使用とする。</t>
+【JP Core仕様】Observation.code に JLAC10コードを使用する場合、測定方法コードが含まれているため method は使用しない。Observation.code から測定方法が判明しない場合や、実際の測定方法が異なる場合に使用することになるが、現状では運用が困難と想定されるため、当面は未使用とする。</t>
   </si>
   <si>
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.
@@ -1635,7 +1635,7 @@
   </si>
   <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).
-【JP-Core仕様】検体検査プロファイルでは必須とする。</t>
+【JP Core仕様】検体検査プロファイルでは必須とする。</t>
   </si>
   <si>
     <t>&lt; 123038009 |Specimen|</t>
@@ -1665,7 +1665,7 @@
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.
-【JP-Core仕様】検査に使用した機器等の情報に使用する。</t>
+【JP Core仕様】検査に使用した機器等の情報に使用する。</t>
   </si>
   <si>
     <t>&lt; 49062001 |Device|</t>
@@ -1695,7 +1695,7 @@
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
-【JP-Core仕様】可能な限りlow、highに構造化すべき。構造化できない場合、あるいはlow、highに該当しない場合はtextを使用。</t>
+【JP Core仕様】可能な限りlow、highに構造化すべき。構造化できない場合、あるいはlow、highに該当しない場合はtextを使用。</t>
   </si>
   <si>
     <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.
@@ -1880,7 +1880,7 @@
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-【JP-Core仕様】1検査で複数の検査項目が実施される場合の親検査項目を設定する。</t>
+【JP Core仕様】1検査で複数の検査項目が実施される場合の親検査項目を設定する。</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1896,7 +1896,7 @@
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from　observation がつくりゃれる元の関連する測定</t>
+    <t>Related measurements the observation is made from　observation が作られる元の関連する測定</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="611">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -297,7 +297,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifier for observation　Observationのためのビジネス識別子</t>
+    <t>当該検査項目に対して、施設内で割り振られる一意の識別子</t>
   </si>
   <si>
     <t>A unique identifier assigned to this observation.
@@ -517,6 +517,10 @@
   </si>
   <si>
     <t>Observation.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1562,7 +1566,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part　観察された身体部位</t>
+    <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
   </si>
   <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).
@@ -1577,7 +1581,10 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationBodySite_VS</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1611,7 +1618,10 @@
 場合により、測定方法は結果に影響を与える可能性があるため、結果を比較できるかどうかを判断したり、結果の重要性を判断したりするために使用される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationMethod_VS</t>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -3703,13 +3713,13 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3760,7 +3770,7 @@
         <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3784,7 +3794,7 @@
         <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3795,7 +3805,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3824,7 +3834,7 @@
         <v>138</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>140</v>
@@ -3865,19 +3875,19 @@
         <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3901,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3912,7 +3922,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3938,16 +3948,16 @@
         <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>81</v>
@@ -3972,13 +3982,13 @@
         <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>81</v>
@@ -3996,7 +4006,7 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -4020,7 +4030,7 @@
         <v>134</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -4031,7 +4041,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -4054,19 +4064,19 @@
         <v>92</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>81</v>
@@ -4091,13 +4101,13 @@
         <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>81</v>
@@ -4115,7 +4125,7 @@
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -4136,10 +4146,10 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -4150,7 +4160,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4176,16 +4186,16 @@
         <v>105</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
@@ -4198,7 +4208,7 @@
         <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>81</v>
@@ -4234,7 +4244,7 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -4255,10 +4265,10 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -4269,7 +4279,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4292,16 +4302,16 @@
         <v>92</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4315,7 +4325,7 @@
         <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>81</v>
@@ -4351,7 +4361,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -4372,10 +4382,10 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -4386,7 +4396,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4409,13 +4419,13 @@
         <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4466,7 +4476,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -4487,10 +4497,10 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4501,7 +4511,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4524,16 +4534,16 @@
         <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4583,7 +4593,7 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4604,10 +4614,10 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4618,11 +4628,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4641,19 +4651,19 @@
         <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4702,7 +4712,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4717,16 +4727,16 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4737,11 +4747,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4760,16 +4770,16 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4819,7 +4829,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4834,16 +4844,16 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4854,7 +4864,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4880,16 +4890,16 @@
         <v>111</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>81</v>
@@ -4914,13 +4924,13 @@
         <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>81</v>
@@ -4938,7 +4948,7 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>91</v>
@@ -4953,19 +4963,19 @@
         <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4973,7 +4983,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4996,19 +5006,19 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -5036,26 +5046,26 @@
         <v>115</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -5079,10 +5089,10 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -5090,7 +5100,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5113,13 +5123,13 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5170,7 +5180,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -5194,7 +5204,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -5205,7 +5215,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5234,7 +5244,7 @@
         <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>140</v>
@@ -5275,19 +5285,19 @@
         <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -5311,7 +5321,7 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -5322,7 +5332,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5345,19 +5355,19 @@
         <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -5406,7 +5416,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5427,10 +5437,10 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5441,7 +5451,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5464,19 +5474,19 @@
         <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
@@ -5525,7 +5535,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5546,10 +5556,10 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5560,10 +5570,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>81</v>
@@ -5585,19 +5595,19 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
@@ -5607,7 +5617,7 @@
         <v>81</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>81</v>
@@ -5625,10 +5635,10 @@
         <v>115</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5646,7 +5656,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5670,10 +5680,10 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5681,11 +5691,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5704,19 +5714,19 @@
         <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5744,10 +5754,10 @@
         <v>115</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5765,7 +5775,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>91</v>
@@ -5780,27 +5790,27 @@
         <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5823,13 +5833,13 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5880,7 +5890,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5904,7 +5914,7 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5915,7 +5925,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5944,7 +5954,7 @@
         <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>140</v>
@@ -5985,19 +5995,19 @@
         <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -6021,7 +6031,7 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -6032,7 +6042,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6055,19 +6065,19 @@
         <v>92</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -6116,7 +6126,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -6137,10 +6147,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6151,7 +6161,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6174,13 +6184,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6231,7 +6241,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -6255,7 +6265,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6266,7 +6276,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6295,7 +6305,7 @@
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
@@ -6336,19 +6346,19 @@
         <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -6372,7 +6382,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6383,7 +6393,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6409,16 +6419,16 @@
         <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -6467,7 +6477,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6488,10 +6498,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6502,7 +6512,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6525,16 +6535,16 @@
         <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6584,7 +6594,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6605,10 +6615,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6619,7 +6629,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6645,16 +6655,16 @@
         <v>111</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6703,7 +6713,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6724,10 +6734,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6738,7 +6748,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6761,19 +6771,19 @@
         <v>92</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6822,7 +6832,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6843,10 +6853,10 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6857,7 +6867,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6880,19 +6890,19 @@
         <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6941,7 +6951,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6962,10 +6972,10 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6976,7 +6986,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6999,19 +7009,19 @@
         <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -7060,7 +7070,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -7081,10 +7091,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7095,7 +7105,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7118,19 +7128,19 @@
         <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -7179,7 +7189,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -7194,19 +7204,19 @@
         <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -7214,7 +7224,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7237,16 +7247,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7296,7 +7306,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -7317,13 +7327,13 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7331,11 +7341,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7354,19 +7364,19 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -7415,7 +7425,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -7430,19 +7440,19 @@
         <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7450,11 +7460,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7473,19 +7483,19 @@
         <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -7534,7 +7544,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7549,19 +7559,19 @@
         <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7569,7 +7579,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7592,16 +7602,16 @@
         <v>92</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7651,7 +7661,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7672,13 +7682,13 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7686,7 +7696,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7709,19 +7719,19 @@
         <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -7770,7 +7780,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7785,19 +7795,19 @@
         <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7805,7 +7815,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7828,19 +7838,19 @@
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7889,7 +7899,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7898,7 +7908,7 @@
         <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>103</v>
@@ -7907,24 +7917,24 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7947,19 +7957,19 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7984,13 +7994,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -8008,7 +8018,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -8017,7 +8027,7 @@
         <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>103</v>
@@ -8032,7 +8042,7 @@
         <v>134</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -8043,11 +8053,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -8066,19 +8076,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -8103,13 +8113,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -8127,7 +8137,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -8145,24 +8155,24 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8185,19 +8195,19 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -8246,7 +8256,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -8267,10 +8277,10 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8281,7 +8291,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8304,13 +8314,13 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8361,7 +8371,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -8385,7 +8395,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8396,7 +8406,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8425,7 +8435,7 @@
         <v>138</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>140</v>
@@ -8466,19 +8476,19 @@
         <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8502,7 +8512,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8513,7 +8523,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8536,16 +8546,16 @@
         <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8595,7 +8605,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8619,7 +8629,7 @@
         <v>134</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8630,7 +8640,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8653,13 +8663,13 @@
         <v>92</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8710,7 +8720,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8734,7 +8744,7 @@
         <v>134</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8745,7 +8755,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8768,16 +8778,16 @@
         <v>92</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8827,7 +8837,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>91</v>
@@ -8851,7 +8861,7 @@
         <v>134</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8862,7 +8872,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8885,16 +8895,16 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8920,11 +8930,13 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8942,7 +8954,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8960,24 +8972,24 @@
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9000,19 +9012,19 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
@@ -9037,11 +9049,13 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -9059,7 +9073,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -9080,10 +9094,10 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9094,7 +9108,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9117,16 +9131,16 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9176,7 +9190,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -9194,24 +9208,24 @@
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9234,16 +9248,16 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9293,7 +9307,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -9311,24 +9325,24 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9351,19 +9365,19 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>81</v>
@@ -9412,7 +9426,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9424,7 +9438,7 @@
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9433,10 +9447,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9447,7 +9461,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9470,13 +9484,13 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9527,7 +9541,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9551,7 +9565,7 @@
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9562,7 +9576,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9591,7 +9605,7 @@
         <v>138</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>140</v>
@@ -9644,7 +9658,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9668,7 +9682,7 @@
         <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9679,11 +9693,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9705,10 +9719,10 @@
         <v>137</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>140</v>
@@ -9763,7 +9777,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9798,7 +9812,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9821,16 +9835,16 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9880,7 +9894,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9889,7 +9903,7 @@
         <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>103</v>
@@ -9901,10 +9915,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9915,7 +9929,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9938,16 +9952,16 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9997,7 +10011,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -10006,7 +10020,7 @@
         <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>103</v>
@@ -10018,10 +10032,10 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -10032,7 +10046,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10055,19 +10069,19 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -10095,10 +10109,10 @@
         <v>115</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>81</v>
@@ -10116,7 +10130,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -10134,13 +10148,13 @@
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -10151,7 +10165,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10174,19 +10188,19 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -10211,13 +10225,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -10235,7 +10249,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -10253,13 +10267,13 @@
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10270,7 +10284,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10293,19 +10307,19 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -10354,7 +10368,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10378,7 +10392,7 @@
         <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10389,7 +10403,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10412,16 +10426,16 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10471,7 +10485,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10492,10 +10506,10 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10506,7 +10520,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10529,16 +10543,16 @@
         <v>92</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10588,7 +10602,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10609,10 +10623,10 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10623,7 +10637,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10646,16 +10660,16 @@
         <v>92</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10705,7 +10719,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10726,10 +10740,10 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10740,7 +10754,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10763,19 +10777,19 @@
         <v>92</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>81</v>
@@ -10824,7 +10838,7 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10845,10 +10859,10 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10859,7 +10873,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10882,13 +10896,13 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10939,7 +10953,7 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10963,7 +10977,7 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10974,7 +10988,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11003,7 +11017,7 @@
         <v>138</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>140</v>
@@ -11056,7 +11070,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -11080,7 +11094,7 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11091,11 +11105,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -11117,10 +11131,10 @@
         <v>137</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>140</v>
@@ -11175,7 +11189,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -11210,7 +11224,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11233,19 +11247,19 @@
         <v>92</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>81</v>
@@ -11270,13 +11284,13 @@
         <v>81</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>81</v>
@@ -11294,7 +11308,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>91</v>
@@ -11312,16 +11326,16 @@
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -11329,7 +11343,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11352,19 +11366,19 @@
         <v>92</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>81</v>
@@ -11413,7 +11427,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -11431,24 +11445,24 @@
         <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11471,19 +11485,19 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>81</v>
@@ -11508,13 +11522,13 @@
         <v>81</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>81</v>
@@ -11532,7 +11546,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -11541,7 +11555,7 @@
         <v>91</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>103</v>
@@ -11556,7 +11570,7 @@
         <v>134</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11567,11 +11581,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11590,19 +11604,19 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11627,13 +11641,13 @@
         <v>81</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>81</v>
@@ -11651,7 +11665,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11669,24 +11683,24 @@
         <v>81</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11712,16 +11726,16 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>81</v>
@@ -11770,7 +11784,7 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
@@ -11791,10 +11805,10 @@
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="624">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1337,42 +1337,32 @@
 CodeableConceptstring</t>
   </si>
   <si>
-    <t>Actual result　実際の結果値</t>
+    <t>同じ検査項目でも、システム（施設）により、使うデータ型が異なる可能性あり。【詳細参照】</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.
 検体検査の結果として決定された情報。</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP Core仕様】valueQuantity　：OBX-2＝「NM」の時の OBX-5(結果値)、OBX-6(単位)
-valueQuantity.value　：OBX-5(結果値)
-valueQuantity.comparator　：SS-MIX2 検体検査結果メッセージでは未使用となっているデータ型だが、SN型のSN.1(比較演算子)が該当する。検査値の「0未満」の場合の「未満」などに相当するコードを設定。
-valueQuantity.unit　：OBX-6(単位) CWE.2 テキスト
-valueQuantity.system　：OBX-6(単位) CWE.3 コード体系
-HL7では「ISO+」だが、ローカルコード99zzzのHL7標準の”ISO+"が示すOID、ローカルコードの場合はOIDを別途取得必要？
-valueQuantity.code　：OBX-6(単位) CWE.1 識別子
-valueCodeableConcept　：OBX-2＝「CWE」の時の OBX-5(結果値)
-valueCodeableConcept.coding　：SS-MIXの場合、CWEは正規コード＋代替コードの2種類登録可能。
-valueCodeableConcept.coding.system　：CWE.3 or 6 コード体系。対象コードの OIDを設定
-valueCodeableConcept.coding.version　：CWE.7 コード体系バージョン ID
-valueCodeableConcept.coding.code　：CWE.1 or 4 識別子。対象コードシステムのコード
-valueCodeableConcept.coding.display　：CWE.2 or 5 テキスト。対象コードの名称
-valueCodeableConcept.coding.userselected　：未使用とする。
-valueCodeableConcept.text　：CWE.2 テキスト。coding.display と同じ。
-valueString　：OBX-2＝「ST」の時の OBX-5(結果値)
-以下のデータ型はSS-MIX2では未使用のため、未使用とした。今後の議論で使用の必要性が出れば復活させる。
+    <t>以下のデータ型はSS-MIX2では未使用のため、未使用とした。今後の議論で使用の必要性が出れば復活させる。
 valueBoolean
-valueInteger　：OBX-2＝「NW」の時の OBX-5(結果値)
+valueInteger　：検査結果値を整数値（Integer）で定義したい場合に指定する。ただし、valueQuantityで単位付き数値を示すので、通常は使わない。　SS-MIX2／HL7 V2.5→ OBX-2＝「NW」の時の OBX-5(結果値)
 valueRange
 valueRatio
 valueSampledData
-valueTime　：OBX-2＝「TM」の時の OBX-5(結果値)
-valueDateTime　：OBX-2＝「DT」の時の OBX-5(結果値)
+valueTime　：検査結果値が「時間」の場合、その時間を指定する。　SS-MIX2／HL7 V2.5→ OBX-2＝「TM」の時の OBX-5(結果値)
+valueDateTime　：検査結果値が「日時」の場合、その日時を指定する。　SS-MIX2／HL7 V2.5→ OBX-2＝「DT」の時の OBX-5(結果値)
 valuePeriod</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1389,6 +1379,50 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>検査結果が「数値」の場合、値、単位を設定する。　SS-MIX2／HL7 V2.5→ OBX-2＝「NM」の時の OBX-5(結果値)、OBX-6(単位)【詳細参照】</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.
+結果情報が単純な値である場合、observationを行った結果として決定された情報。</t>
+  </si>
+  <si>
+    <t>valueQuantity.value　：結果値（数値）を定義。　SS-MIX2／HL7 V2.5：OBX-5(結果値)
+valueQuantity.comparator　：QuantityComparator Value setから設定。　SS-MIX2／HL7 V2.5→ 検体検査結果メッセージでは未使用となっているデータ型だが、SN型のSN.1(比較演算子)が該当する。検査値の「0未満」の場合の「未満」などに相当するコードを設定。
+valueQuantity.unit　：.systemで示す単位のValue setの文字列を指定。　SS-MIX2／HL7 V2.5→ OBX-6(単位) CWE.2 テキスト
+valueQuantity.system　：単位のValue set名を指定。　SS-MIX2／HL7 V2.5→ OBX-6(単位) CWE.3 コード体系 HL7では「ISO+」だが、ローカルコード99zzzのHL7標準の「ISO+」が示すOID、ローカルコードの場合はOIDを別途取得必要
+valueQuantity.code　：.systemで示す単位のValue setのコードを指定。　SS-MIX2／HL7 V2.5→ OBX-6(単位) CWE.1 識別子</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>検査結果が「コード値」の場合、コード、テキスト、コードのValue setを定義する。　SS-MIX2／HL7 V2.5→ OBX-2＝「CWE」の時の OBX-5(結果値)【詳細参照】</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept.coding　：ローカルコードと国際標準コードなど複数指定できる。　SS-MIX2／HL7 V2.5→ CWEは正規コード＋代替コードの2種類登録可能。
+valueCodeableConcept.coding.system　：対象のValue set名を指定。　SS-MIX2／HL7 V2.5→ CWE.3 or 6 コード体系。対象コードの OIDを設定
+valueCodeableConcept.coding.version　：対象のValue setのバージョンを指定。　SS-MIX2／HL7 V2.5→ CWE.7 コード体系バージョン ID valueCodeableConcept.coding.code　：対象のValue setのコードを指定。　SS-MIX2／HL7 V2.5→ CWE.1 or 4 識別子。対象コードシステムのコード
+valueCodeableConcept.coding.display　：対象のValue setのテキストを指定。　SS-MIX2／HL7 V2.5→ CWE.2 or 5 テキスト。対象コードの名称
+valueCodeableConcept.coding.userselected　：未使用。
+valueCodeableConcept.text　：コードが示す意味を指定する。通常は.coding.displayの値を指定するが、複数ある場合は適宜編集すること。　SS-MIX2／HL7 V2.5→ CWE.2 テキスト。coding.display と同じ。</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>検査結果値が「文字列」の場合、その文字列を指定する。SS-MIX2／HL7 V2.5→ OBX-2＝「ST」の時の OBX-5(結果値)</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -2339,7 +2373,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO80"/>
+  <dimension ref="A1:AO83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2349,7 +2383,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -7887,16 +7921,14 @@
         <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>406</v>
@@ -7908,7 +7940,7 @@
         <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>103</v>
@@ -7917,26 +7949,28 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7954,22 +7988,22 @@
         <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7994,13 +8028,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -8018,7 +8052,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -8027,7 +8061,7 @@
         <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>103</v>
@@ -8036,35 +8070,37 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>134</v>
+        <v>416</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="C49" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>81</v>
@@ -8073,22 +8109,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>181</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -8113,13 +8149,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -8137,16 +8173,16 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>103</v>
@@ -8155,26 +8191,28 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8183,7 +8221,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -8192,22 +8230,22 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>439</v>
+        <v>159</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -8256,16 +8294,16 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -8274,24 +8312,24 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8314,16 +8352,20 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>160</v>
+        <v>431</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8347,13 +8389,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -8371,7 +8413,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>162</v>
+        <v>430</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -8380,10 +8422,10 @@
         <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>81</v>
@@ -8392,10 +8434,10 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>163</v>
+        <v>438</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8406,11 +8448,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>136</v>
+        <v>440</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8429,18 +8471,20 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>138</v>
+        <v>441</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>165</v>
+        <v>442</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8464,31 +8508,31 @@
         <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>169</v>
+        <v>439</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8500,30 +8544,30 @@
         <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>163</v>
+        <v>449</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>81</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8534,7 +8578,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>81</v>
@@ -8543,21 +8587,23 @@
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8605,13 +8651,13 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>81</v>
@@ -8626,10 +8672,10 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>134</v>
+        <v>457</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8640,7 +8686,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8660,16 +8706,16 @@
         <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>456</v>
+        <v>159</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>457</v>
+        <v>160</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>458</v>
+        <v>161</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8720,7 +8766,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>459</v>
+        <v>162</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8732,7 +8778,7 @@
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>81</v>
@@ -8741,10 +8787,10 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>460</v>
+        <v>163</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8755,18 +8801,18 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
@@ -8775,19 +8821,19 @@
         <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>462</v>
+        <v>137</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>463</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>464</v>
+        <v>165</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>465</v>
+        <v>140</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8825,31 +8871,31 @@
         <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>466</v>
+        <v>169</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>81</v>
@@ -8858,10 +8904,10 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>467</v>
+        <v>163</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8872,7 +8918,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8892,19 +8938,19 @@
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>181</v>
+        <v>462</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8930,13 +8976,13 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>473</v>
+        <v>81</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>474</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8954,7 +9000,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8972,24 +9018,24 @@
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>476</v>
+        <v>134</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>478</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9009,23 +9055,19 @@
         <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>181</v>
+        <v>469</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>81</v>
       </c>
@@ -9049,31 +9091,31 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -9094,10 +9136,10 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>486</v>
+        <v>134</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9108,7 +9150,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9128,19 +9170,19 @@
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9190,10 +9232,10 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>91</v>
@@ -9208,24 +9250,24 @@
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>493</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>494</v>
+        <v>134</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>496</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9248,16 +9290,16 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>498</v>
+        <v>181</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9283,13 +9325,13 @@
         <v>81</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
+        <v>486</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>81</v>
@@ -9307,7 +9349,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -9325,24 +9367,24 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>505</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9353,7 +9395,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>81</v>
@@ -9365,19 +9407,19 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>507</v>
+        <v>181</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>81</v>
@@ -9402,13 +9444,13 @@
         <v>81</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>81</v>
+        <v>498</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>81</v>
@@ -9426,19 +9468,19 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>512</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9447,10 +9489,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9461,7 +9503,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9469,7 +9511,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>91</v>
@@ -9484,15 +9526,17 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>159</v>
+        <v>502</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>160</v>
+        <v>503</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>81</v>
@@ -9541,7 +9585,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9553,41 +9597,41 @@
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>81</v>
+        <v>506</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>163</v>
+        <v>508</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>81</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>81</v>
@@ -9599,16 +9643,16 @@
         <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>137</v>
+        <v>511</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>138</v>
+        <v>512</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>165</v>
+        <v>513</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>140</v>
+        <v>514</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9658,46 +9702,46 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>169</v>
+        <v>510</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>81</v>
+        <v>515</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>516</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>163</v>
+        <v>517</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9710,25 +9754,25 @@
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>137</v>
+        <v>520</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>140</v>
+        <v>523</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>146</v>
+        <v>524</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>81</v>
@@ -9777,7 +9821,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9789,7 +9833,7 @@
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
@@ -9798,10 +9842,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>81</v>
+        <v>526</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>134</v>
+        <v>527</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9812,7 +9856,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9835,17 +9879,15 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>523</v>
+        <v>159</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>524</v>
+        <v>160</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>81</v>
@@ -9894,7 +9936,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>522</v>
+        <v>162</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9903,10 +9945,10 @@
         <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>81</v>
@@ -9915,10 +9957,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>528</v>
+        <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>529</v>
+        <v>163</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9929,18 +9971,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>81</v>
@@ -9952,16 +9994,16 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>523</v>
+        <v>137</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>531</v>
+        <v>138</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>532</v>
+        <v>165</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>526</v>
+        <v>140</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10011,19 +10053,19 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>530</v>
+        <v>169</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>81</v>
@@ -10032,10 +10074,10 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>528</v>
+        <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>533</v>
+        <v>163</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -10046,42 +10088,42 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>537</v>
+        <v>140</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>538</v>
+        <v>146</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -10106,13 +10148,13 @@
         <v>81</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>539</v>
+        <v>81</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>540</v>
+        <v>81</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>81</v>
@@ -10136,25 +10178,25 @@
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>541</v>
+        <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>542</v>
+        <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>436</v>
+        <v>134</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -10165,7 +10207,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10176,7 +10218,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -10188,20 +10230,18 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>181</v>
+        <v>536</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>81</v>
       </c>
@@ -10225,13 +10265,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>548</v>
+        <v>81</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>549</v>
+        <v>81</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -10249,16 +10289,16 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>540</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>103</v>
@@ -10267,13 +10307,13 @@
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10284,7 +10324,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10307,20 +10347,18 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10368,7 +10406,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10377,7 +10415,7 @@
         <v>91</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>540</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>103</v>
@@ -10389,10 +10427,10 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>81</v>
+        <v>541</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10403,7 +10441,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10426,18 +10464,20 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>81</v>
       </c>
@@ -10461,13 +10501,13 @@
         <v>81</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>81</v>
+        <v>552</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>81</v>
+        <v>553</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>81</v>
@@ -10485,7 +10525,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10503,13 +10543,13 @@
         <v>81</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>81</v>
+        <v>554</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>560</v>
+        <v>449</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10520,7 +10560,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10540,21 +10580,23 @@
         <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>562</v>
+        <v>181</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10578,13 +10620,13 @@
         <v>81</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>81</v>
+        <v>562</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>81</v>
@@ -10602,7 +10644,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10620,13 +10662,13 @@
         <v>81</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>81</v>
+        <v>554</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>567</v>
+        <v>449</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10637,7 +10679,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10648,7 +10690,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>81</v>
@@ -10657,21 +10699,23 @@
         <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10719,13 +10763,13 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>81</v>
@@ -10740,10 +10784,10 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>566</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10754,7 +10798,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10765,7 +10809,7 @@
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>81</v>
@@ -10774,23 +10818,21 @@
         <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>507</v>
+        <v>159</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10838,13 +10880,13 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>81</v>
@@ -10859,10 +10901,10 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10873,7 +10915,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10884,7 +10926,7 @@
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>81</v>
@@ -10893,18 +10935,20 @@
         <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>159</v>
+        <v>575</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>160</v>
+        <v>576</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>81</v>
@@ -10953,19 +10997,19 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>162</v>
+        <v>574</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>81</v>
@@ -10974,10 +11018,10 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>81</v>
+        <v>579</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>163</v>
+        <v>580</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10988,11 +11032,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11008,19 +11052,19 @@
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>137</v>
+        <v>582</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>138</v>
+        <v>583</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>165</v>
+        <v>584</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>140</v>
+        <v>585</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -11070,7 +11114,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>169</v>
+        <v>581</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -11082,7 +11126,7 @@
         <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>81</v>
@@ -11091,10 +11135,10 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>81</v>
+        <v>579</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>163</v>
+        <v>586</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11105,11 +11149,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -11122,25 +11166,25 @@
         <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>137</v>
+        <v>520</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>520</v>
+        <v>589</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>140</v>
+        <v>590</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>146</v>
+        <v>591</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>81</v>
@@ -11189,7 +11233,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -11201,7 +11245,7 @@
         <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>81</v>
@@ -11210,10 +11254,10 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>81</v>
+        <v>592</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>134</v>
+        <v>593</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11224,7 +11268,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11232,7 +11276,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>91</v>
@@ -11244,23 +11288,19 @@
         <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>585</v>
+        <v>160</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11284,13 +11324,13 @@
         <v>81</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>588</v>
+        <v>81</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>589</v>
+        <v>81</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>81</v>
@@ -11308,10 +11348,10 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>584</v>
+        <v>162</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>91</v>
@@ -11320,22 +11360,22 @@
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>590</v>
+        <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -11343,18 +11383,18 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>81</v>
@@ -11363,23 +11403,21 @@
         <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>592</v>
+        <v>137</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>593</v>
+        <v>138</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>594</v>
+        <v>165</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11427,77 +11465,77 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>591</v>
+        <v>169</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>596</v>
+        <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>415</v>
+        <v>163</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>598</v>
+        <v>532</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>599</v>
+        <v>533</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>421</v>
+        <v>146</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>81</v>
@@ -11522,13 +11560,13 @@
         <v>81</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>81</v>
@@ -11546,19 +11584,19 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>597</v>
+        <v>534</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>81</v>
@@ -11567,10 +11605,10 @@
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11581,18 +11619,18 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>81</v>
@@ -11601,22 +11639,22 @@
         <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>181</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>605</v>
+        <v>292</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11641,13 +11679,13 @@
         <v>81</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>186</v>
+        <v>485</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>432</v>
+        <v>601</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>433</v>
+        <v>602</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>81</v>
@@ -11665,13 +11703,13 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>81</v>
@@ -11683,24 +11721,24 @@
         <v>81</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>434</v>
+        <v>603</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>435</v>
+        <v>297</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>436</v>
+        <v>298</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11711,7 +11749,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>81</v>
@@ -11720,22 +11758,22 @@
         <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>81</v>
+        <v>605</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="N80" t="s" s="2">
-        <v>610</v>
+        <v>411</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>81</v>
@@ -11784,13 +11822,13 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>81</v>
@@ -11802,18 +11840,375 @@
         <v>81</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>81</v>
+        <v>609</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>513</v>
+        <v>416</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>514</v>
+        <v>417</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO80" t="s" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -734,11 +734,11 @@
   </si>
   <si>
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.
-本プロファイルでは、検体検査オーダに関する情報。</t>
+このプロファイルでは、検体検査オーダに関する情報。</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-【JP Core仕様】オーダ情報がある場合、本プロファイルでは ServiceRequest のリソースを参照する。オーダIDの情報はここで使用する。</t>
+【JP Core仕様】オーダ情報がある場合、このプロファイルでは ServiceRequest のリソースを参照する。オーダIDの情報はここで使用する。</t>
   </si>
   <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -834,7 +834,7 @@
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP Core仕様】推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。
+【JP Core仕様】推奨コード表「ObservationCategoryCodes」より、このプロファイルでは「laboratory」固定とする。
 (social-history | vital-signs | imaging | laboratory | procedure | survey | exam | therapy | activity)</t>
   </si>
   <si>
@@ -877,7 +877,7 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-【JP Core仕様】推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。</t>
+【JP Core仕様】推奨コード表「ObservationCategoryCodes」より、このプロファイルでは「laboratory」固定とする。</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -958,7 +958,7 @@
     <t>MEDIS 臨床検査マスター</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationLabResultCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationLabResultCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1135,7 +1135,7 @@
   </si>
   <si>
     <t>Very often the text is the same as a displayName of one of the codings.
-【JP Core仕様】本プロファイルでは、表示名として必須とする。
+【JP Core仕様】このプロファイルでは、表示名として必須とする。
 多くの場合、coding.display と同一になるが、coding.display に異なる複数の表現が格納される場合を想定し、code間で共通の表現として必須とする。</t>
   </si>
   <si>
@@ -1154,7 +1154,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP Core仕様】本プロファイルでは、Patient 限定、かつ必須とする。</t>
+【JP Core仕様】このプロファイルでは、Patient 限定、かつ必須とする。</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -1179,7 +1179,7 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物。</t>
+    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物</t>
   </si>
   <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.
@@ -1213,7 +1213,7 @@
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
 【JP Core仕様】入院外来の区別や所在場所、担当診療科の情報に使用する。
-※本プロファイルの用途では通常は必須と考えられるが、ユースケースにより使用されない場合を考慮し、1..1に制約しない。</t>
+※このプロファイルの用途では通常は必須と考えられるが、ユースケースにより使用されない場合を考慮し、1..1に制約しない。</t>
   </si>
   <si>
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -1250,7 +1250,7 @@
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP Core仕様】本プロファイルでは、検体採取日時を設定し、必須とする。
+【JP Core仕様】このプロファイルでは、検体採取日時を設定し、必須とする。
 effectiveInstant
 instant型はイベント発生のログ時間であり、未使用とする。</t>
   </si>
@@ -1466,7 +1466,7 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc. 高、低、正常、など。</t>
+    <t>High, low, normal, etc. 高、低、正常など</t>
   </si>
   <si>
     <t>A categorical assessment of an observation value.  For example, high, low, normal.
@@ -2392,7 +2392,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.34375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="121.2421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2406,7 +2406,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.45703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.2109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
